--- a/BoM (Bill of Materials)/FC_BoM_MAY2022.xlsx
+++ b/BoM (Bill of Materials)/FC_BoM_MAY2022.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lolom\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d9960ba34d064c46/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17237B8-2045-4043-BC9D-CA68F18B88B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{C17237B8-2045-4043-BC9D-CA68F18B88B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E0B7512-0D2F-48B8-B25F-CF360D1EC679}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{9B1977BB-3535-494D-A834-6A24EC2CE28F}"/>
   </bookViews>
@@ -191,12 +191,6 @@
   </si>
   <si>
     <t>DTECH</t>
-  </si>
-  <si>
-    <t>B07RBKCW3S</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Serial-Adapter-Signal-FT232RL-Windows/dp/B08BLH8H8V</t>
   </si>
   <si>
     <t>https://www.amazon.com/Terminal-Breakout-Module-Teensy-Version/dp/B08R7QZLC9/ref=sr_1_4?keywords=teensy+terminal+block&amp;qid=1651604411&amp;sprefix=teensy+termina%2Caps%2C95&amp;sr=8-4</t>
@@ -486,6 +480,12 @@
   <si>
     <t>https://www.mcmaster.com/5233K66/</t>
   </si>
+  <si>
+    <t>https://www.amazon.com/Serial-Adapter-Signal-Prolific-Windows/dp/B07R8BQYW1/ref=sr_1_3?crid=21MO7AY1PHMK3&amp;keywords=DTECH+FTDI+USB+to+TTL+Serial+3.3V+Adapter+Cable+4+Wire+End+with+FT232+Chip+TX+RX+Signal+for+Windows+11+10+8+7+XP+Vista+%286ft%2C+Black%29&amp;qid=1652115727&amp;s=industrial&amp;sprefix=dtech+ftdi+usb+to+ttl+serial+3.3v+adapter+cable+4+wire+end+with+ft232+chip+tx+rx+signal+for+windows+11+10+8+7+xp+vista+6ft%2C+black+%2Cindustrial%2C131&amp;sr=1-3</t>
+  </si>
+  <si>
+    <t>B08BLHGWHS</t>
+  </si>
 </sst>
 </file>
 
@@ -749,14 +749,23 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -764,25 +773,16 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1102,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC95EA8-A35C-4DA1-8477-E5A472E946EF}">
   <dimension ref="A1:FP143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1122,62 +1122,62 @@
   <sheetData>
     <row r="1" spans="1:103" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37" t="s">
+      <c r="F1" s="41"/>
+      <c r="G1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="37"/>
+      <c r="H1" s="41"/>
       <c r="I1" s="27" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L1" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M1" s="26" t="s">
         <v>4</v>
       </c>
       <c r="N1" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="O1" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="O1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
       <c r="Z1" s="26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AA1" s="27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB1" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC1" s="22"/>
       <c r="AD1" s="22"/>
@@ -1260,22 +1260,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D2" s="29"/>
       <c r="E2" s="29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F2" s="29"/>
-      <c r="G2" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="34"/>
+      <c r="G2" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="32"/>
       <c r="I2" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J2" s="10">
         <v>1</v>
@@ -1292,19 +1292,19 @@
       <c r="N2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
+      <c r="O2" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
       <c r="Z2" s="25"/>
       <c r="AA2" s="28" t="e">
         <f>SUM(A61:A101)</f>
@@ -1312,7 +1312,7 @@
       </c>
       <c r="AB2" s="28">
         <f>SUM(L2:L35)</f>
-        <v>2398.2499999999986</v>
+        <v>2400.7499999999986</v>
       </c>
       <c r="AC2" s="18"/>
       <c r="AD2" s="18"/>
@@ -1395,7 +1395,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>9</v>
@@ -1405,10 +1405,10 @@
         <v>10</v>
       </c>
       <c r="F3" s="29"/>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="34"/>
+      <c r="H3" s="32"/>
       <c r="I3" s="10" t="s">
         <v>10</v>
       </c>
@@ -1427,19 +1427,19 @@
       <c r="N3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="35" t="s">
+      <c r="O3" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
       <c r="Z3" s="25"/>
       <c r="AA3" s="17"/>
       <c r="AB3" s="17"/>
@@ -1524,7 +1524,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>13</v>
@@ -1534,10 +1534,10 @@
         <v>14</v>
       </c>
       <c r="F4" s="29"/>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="34"/>
+      <c r="H4" s="32"/>
       <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
@@ -1556,19 +1556,19 @@
       <c r="N4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
+      <c r="O4" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
       <c r="Z4" s="25"/>
       <c r="AA4" s="17"/>
       <c r="AB4" s="17"/>
@@ -1653,7 +1653,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>17</v>
@@ -1663,10 +1663,10 @@
         <v>18</v>
       </c>
       <c r="F5" s="29"/>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="34"/>
+      <c r="H5" s="32"/>
       <c r="I5" s="10" t="s">
         <v>18</v>
       </c>
@@ -1685,19 +1685,19 @@
       <c r="N5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="35" t="s">
+      <c r="O5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="35"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
       <c r="Z5" s="25"/>
       <c r="AA5" s="17"/>
       <c r="AB5" s="17"/>
@@ -1782,7 +1782,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>21</v>
@@ -1792,10 +1792,10 @@
         <v>22</v>
       </c>
       <c r="F6" s="29"/>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="34"/>
+      <c r="H6" s="32"/>
       <c r="I6" s="10" t="s">
         <v>6</v>
       </c>
@@ -1814,21 +1814,21 @@
       <c r="N6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="35" t="s">
+      <c r="O6" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="35"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
       <c r="Z6" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AA6" s="17"/>
       <c r="AB6" s="17"/>
@@ -1913,7 +1913,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>25</v>
@@ -1923,10 +1923,10 @@
         <v>26</v>
       </c>
       <c r="F7" s="29"/>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="34"/>
+      <c r="H7" s="32"/>
       <c r="I7" s="10" t="s">
         <v>6</v>
       </c>
@@ -1945,19 +1945,19 @@
       <c r="N7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O7" s="35" t="s">
+      <c r="O7" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="35"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
       <c r="Z7" s="23"/>
       <c r="AA7" s="17"/>
       <c r="AB7" s="17"/>
@@ -2042,7 +2042,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>30</v>
@@ -2052,10 +2052,10 @@
         <v>39</v>
       </c>
       <c r="F8" s="29"/>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="34"/>
+      <c r="H8" s="32"/>
       <c r="I8" s="10" t="s">
         <v>16</v>
       </c>
@@ -2074,19 +2074,19 @@
       <c r="N8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="O8" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="35"/>
-      <c r="Y8" s="35"/>
+      <c r="O8" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
       <c r="Z8" s="23"/>
       <c r="AA8" s="17"/>
       <c r="AB8" s="17"/>
@@ -2171,20 +2171,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D9" s="29"/>
       <c r="E9" s="29" t="s">
         <v>39</v>
       </c>
       <c r="F9" s="29"/>
-      <c r="G9" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" s="34"/>
+      <c r="G9" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="32"/>
       <c r="I9" s="10" t="s">
         <v>16</v>
       </c>
@@ -2203,19 +2203,19 @@
       <c r="N9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="O9" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
+      <c r="O9" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
       <c r="Z9" s="23"/>
       <c r="AA9" s="17"/>
       <c r="AB9" s="17"/>
@@ -2300,7 +2300,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>40</v>
@@ -2310,10 +2310,10 @@
         <v>31</v>
       </c>
       <c r="F10" s="29"/>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="34"/>
+      <c r="H10" s="32"/>
       <c r="I10" s="10" t="s">
         <v>6</v>
       </c>
@@ -2332,19 +2332,19 @@
       <c r="N10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O10" s="35" t="s">
+      <c r="O10" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="35"/>
-      <c r="Y10" s="35"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
       <c r="Z10" s="23"/>
       <c r="AA10" s="17"/>
       <c r="AB10" s="17"/>
@@ -2429,20 +2429,20 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F11" s="29"/>
-      <c r="G11" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" s="34"/>
+      <c r="G11" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="32"/>
       <c r="I11" s="10" t="s">
         <v>16</v>
       </c>
@@ -2461,21 +2461,21 @@
       <c r="N11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O11" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="35"/>
+      <c r="O11" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
       <c r="Z11" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AA11" s="17"/>
       <c r="AB11" s="17"/>
@@ -2560,7 +2560,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>42</v>
@@ -2570,10 +2570,10 @@
         <v>45</v>
       </c>
       <c r="F12" s="29"/>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="34"/>
+      <c r="H12" s="32"/>
       <c r="I12" s="10" t="s">
         <v>6</v>
       </c>
@@ -2592,21 +2592,21 @@
       <c r="N12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="35" t="s">
+      <c r="O12" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="35"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
       <c r="Z12" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AA12" s="17"/>
       <c r="AB12" s="17"/>
@@ -2691,7 +2691,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>43</v>
@@ -2701,10 +2701,10 @@
         <v>45</v>
       </c>
       <c r="F13" s="29"/>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="34"/>
+      <c r="H13" s="32"/>
       <c r="I13" s="10" t="s">
         <v>6</v>
       </c>
@@ -2723,21 +2723,21 @@
       <c r="N13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O13" s="35" t="s">
+      <c r="O13" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="35"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38"/>
       <c r="Z13" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AA13" s="17"/>
       <c r="AB13" s="17"/>
@@ -2822,20 +2822,20 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="34"/>
+      <c r="H14" s="32"/>
       <c r="I14" s="10" t="s">
         <v>6</v>
       </c>
@@ -2854,19 +2854,19 @@
       <c r="N14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O14" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
+      <c r="O14" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
       <c r="Z14" s="23"/>
       <c r="AA14" s="17"/>
       <c r="AB14" s="17"/>
@@ -2951,7 +2951,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C15" s="29" t="s">
         <v>50</v>
@@ -2961,10 +2961,10 @@
         <v>51</v>
       </c>
       <c r="F15" s="29"/>
-      <c r="G15" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="34"/>
+      <c r="G15" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="H15" s="32"/>
       <c r="I15" s="10" t="s">
         <v>6</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="1">
-        <v>12.48</v>
+        <v>14.98</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>8</v>
@@ -2983,21 +2983,21 @@
       <c r="N15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O15" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="35"/>
+      <c r="O15" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
       <c r="Z15" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AA15" s="17"/>
       <c r="AB15" s="17"/>
@@ -3082,20 +3082,20 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D16" s="29"/>
       <c r="E16" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F16" s="29"/>
-      <c r="G16" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="H16" s="34"/>
+      <c r="G16" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="32"/>
       <c r="I16" s="10" t="s">
         <v>6</v>
       </c>
@@ -3114,21 +3114,21 @@
       <c r="N16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O16" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
+      <c r="O16" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
       <c r="Z16" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AA16" s="17"/>
       <c r="AB16" s="17"/>
@@ -3213,20 +3213,20 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F17" s="29"/>
-      <c r="G17" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="H17" s="34"/>
+      <c r="G17" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="32"/>
       <c r="I17" s="10" t="s">
         <v>6</v>
       </c>
@@ -3245,21 +3245,21 @@
       <c r="N17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O17" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
+      <c r="O17" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
       <c r="Z17" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AA17" s="17"/>
       <c r="AB17" s="17"/>
@@ -3344,22 +3344,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F18" s="29"/>
-      <c r="G18" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18" s="34"/>
+      <c r="G18" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="32"/>
       <c r="I18" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J18" s="10">
         <v>1</v>
@@ -3376,21 +3376,21 @@
       <c r="N18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O18" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
+      <c r="O18" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
       <c r="Z18" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AA18" s="17"/>
       <c r="AB18" s="17"/>
@@ -3475,20 +3475,20 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="29" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F19" s="29"/>
-      <c r="G19" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="H19" s="34"/>
+      <c r="G19" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="H19" s="32"/>
       <c r="I19" s="10" t="s">
         <v>6</v>
       </c>
@@ -3502,26 +3502,26 @@
         <v>8.69</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O19" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="36"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="36"/>
-      <c r="Y19" s="36"/>
+      <c r="O19" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="39"/>
+      <c r="X19" s="39"/>
+      <c r="Y19" s="39"/>
       <c r="Z19" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AA19" s="18"/>
       <c r="AB19" s="18"/>
@@ -3606,20 +3606,20 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="29" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F20" s="29"/>
-      <c r="G20" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="H20" s="34"/>
+      <c r="G20" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="H20" s="32"/>
       <c r="I20" s="10" t="s">
         <v>6</v>
       </c>
@@ -3633,26 +3633,26 @@
         <v>8.69</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O20" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="36"/>
+      <c r="O20" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="39"/>
+      <c r="Y20" s="39"/>
       <c r="Z20" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AA20" s="18"/>
       <c r="AB20" s="18"/>
@@ -3737,20 +3737,20 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F21" s="29"/>
-      <c r="G21" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="H21" s="34"/>
+      <c r="G21" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="H21" s="32"/>
       <c r="I21" s="10" t="s">
         <v>6</v>
       </c>
@@ -3769,19 +3769,19 @@
       <c r="N21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O21" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="36"/>
-      <c r="Y21" s="36"/>
+      <c r="O21" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="39"/>
       <c r="Z21" s="18"/>
       <c r="AA21" s="18"/>
       <c r="AB21" s="18"/>
@@ -3866,20 +3866,20 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="29" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="29"/>
-      <c r="G22" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="H22" s="34"/>
+      <c r="G22" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="H22" s="32"/>
       <c r="I22" s="4" t="s">
         <v>14</v>
       </c>
@@ -3898,19 +3898,19 @@
       <c r="N22" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="41"/>
+      <c r="O22" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
       <c r="Z22" s="19"/>
       <c r="AA22" s="18"/>
       <c r="AB22" s="18"/>
@@ -3995,20 +3995,20 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D23" s="29"/>
       <c r="E23" s="29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F23" s="29"/>
-      <c r="G23" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="H23" s="34"/>
+      <c r="G23" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" s="32"/>
       <c r="I23" s="4" t="s">
         <v>6</v>
       </c>
@@ -4027,19 +4027,19 @@
       <c r="N23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O23" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="41"/>
-      <c r="W23" s="41"/>
-      <c r="X23" s="41"/>
-      <c r="Y23" s="41"/>
+      <c r="O23" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
       <c r="Z23" s="19"/>
       <c r="AA23" s="18"/>
       <c r="AB23" s="18"/>
@@ -4124,20 +4124,20 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="29" t="s">
         <v>14</v>
       </c>
       <c r="F24" s="29"/>
-      <c r="G24" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="H24" s="34"/>
+      <c r="G24" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="32"/>
       <c r="I24" s="4" t="s">
         <v>14</v>
       </c>
@@ -4156,19 +4156,19 @@
       <c r="N24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O24" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="41"/>
-      <c r="Y24" s="41"/>
+      <c r="O24" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="36"/>
       <c r="Z24" s="19"/>
       <c r="AA24" s="18"/>
       <c r="AB24" s="18"/>
@@ -4253,20 +4253,20 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D25" s="29"/>
       <c r="E25" s="29" t="s">
         <v>14</v>
       </c>
       <c r="F25" s="29"/>
-      <c r="G25" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="H25" s="34"/>
+      <c r="G25" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="H25" s="32"/>
       <c r="I25" s="4" t="s">
         <v>14</v>
       </c>
@@ -4285,19 +4285,19 @@
       <c r="N25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O25" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="41"/>
-      <c r="X25" s="41"/>
-      <c r="Y25" s="41"/>
+      <c r="O25" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="36"/>
       <c r="Z25" s="19"/>
       <c r="AA25" s="18"/>
       <c r="AB25" s="18"/>
@@ -4382,20 +4382,20 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29" t="s">
         <v>14</v>
       </c>
       <c r="F26" s="29"/>
-      <c r="G26" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="H26" s="43"/>
+      <c r="G26" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" s="34"/>
       <c r="I26" s="4" t="s">
         <v>14</v>
       </c>
@@ -4414,19 +4414,19 @@
       <c r="N26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O26" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="41"/>
-      <c r="W26" s="41"/>
-      <c r="X26" s="41"/>
-      <c r="Y26" s="41"/>
+      <c r="O26" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="36"/>
       <c r="Z26" s="18"/>
       <c r="AA26" s="18"/>
       <c r="AB26" s="18"/>
@@ -4511,20 +4511,20 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D27" s="29"/>
       <c r="E27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="29"/>
-      <c r="G27" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="H27" s="34"/>
+      <c r="G27" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" s="32"/>
       <c r="I27" s="4" t="s">
         <v>14</v>
       </c>
@@ -4543,19 +4543,19 @@
       <c r="N27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O27" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="41"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="41"/>
-      <c r="V27" s="41"/>
-      <c r="W27" s="41"/>
-      <c r="X27" s="41"/>
-      <c r="Y27" s="41"/>
+      <c r="O27" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
       <c r="Z27" s="18"/>
       <c r="AA27" s="18"/>
       <c r="AB27" s="18"/>
@@ -4640,20 +4640,20 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D28" s="29"/>
       <c r="E28" s="29" t="s">
         <v>14</v>
       </c>
       <c r="F28" s="29"/>
-      <c r="G28" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="H28" s="34"/>
+      <c r="G28" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="H28" s="32"/>
       <c r="I28" s="4" t="s">
         <v>14</v>
       </c>
@@ -4672,19 +4672,19 @@
       <c r="N28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O28" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="41"/>
-      <c r="T28" s="41"/>
-      <c r="U28" s="41"/>
-      <c r="V28" s="41"/>
-      <c r="W28" s="41"/>
-      <c r="X28" s="41"/>
-      <c r="Y28" s="41"/>
+      <c r="O28" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
       <c r="Z28" s="18"/>
       <c r="AA28" s="18"/>
       <c r="AB28" s="18"/>
@@ -4769,22 +4769,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D29" s="29"/>
       <c r="E29" s="29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F29" s="29"/>
       <c r="G29" s="29" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H29" s="29"/>
       <c r="I29" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J29" s="11">
         <v>1</v>
@@ -4802,7 +4802,7 @@
         <v>8</v>
       </c>
       <c r="O29" s="30" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P29" s="31"/>
       <c r="Q29" s="31"/>
@@ -4898,10 +4898,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D30" s="29"/>
       <c r="E30" s="29" t="s">
@@ -4909,7 +4909,7 @@
       </c>
       <c r="F30" s="29"/>
       <c r="G30" s="29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H30" s="29"/>
       <c r="I30" s="11" t="s">
@@ -4931,7 +4931,7 @@
         <v>8</v>
       </c>
       <c r="O30" s="30" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P30" s="31"/>
       <c r="Q30" s="31"/>
@@ -5027,10 +5027,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D31" s="29"/>
       <c r="E31" s="29" t="s">
@@ -5038,7 +5038,7 @@
       </c>
       <c r="F31" s="29"/>
       <c r="G31" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H31" s="29"/>
       <c r="I31" s="11" t="s">
@@ -5060,7 +5060,7 @@
         <v>37</v>
       </c>
       <c r="O31" s="30" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P31" s="31"/>
       <c r="Q31" s="31"/>
@@ -5225,22 +5225,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D32" s="29"/>
       <c r="E32" s="29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F32" s="29"/>
-      <c r="G32" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="H32" s="34"/>
+      <c r="G32" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" s="32"/>
       <c r="I32" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J32" s="11">
         <v>1</v>
@@ -5258,7 +5258,7 @@
         <v>8</v>
       </c>
       <c r="O32" s="30" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P32" s="31"/>
       <c r="Q32" s="31"/>
@@ -5423,10 +5423,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D33" s="29"/>
       <c r="E33" s="29" t="s">
@@ -5434,7 +5434,7 @@
       </c>
       <c r="F33" s="29"/>
       <c r="G33" s="29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H33" s="29"/>
       <c r="I33" s="11" t="s">
@@ -5456,7 +5456,7 @@
         <v>37</v>
       </c>
       <c r="O33" s="30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P33" s="31"/>
       <c r="Q33" s="31"/>
@@ -5621,18 +5621,18 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D34" s="29"/>
       <c r="E34" s="29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F34" s="29"/>
       <c r="G34" s="29" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H34" s="29"/>
       <c r="I34" s="11" t="s">
@@ -5654,7 +5654,7 @@
         <v>8</v>
       </c>
       <c r="O34" s="30" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P34" s="31"/>
       <c r="Q34" s="31"/>
@@ -5819,18 +5819,18 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="43"/>
+      <c r="E35" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="33"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="33"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="43"/>
       <c r="I35" s="11" t="s">
         <v>14</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>1</v>
       </c>
       <c r="L35" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M35" s="11"/>
       <c r="N35" s="3" t="s">
@@ -6011,10 +6011,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D36" s="29"/>
       <c r="E36" s="29" t="s">
@@ -6033,7 +6033,7 @@
         <v>1</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M36" s="11"/>
       <c r="N36" s="3" t="s">
@@ -9203,7 +9203,7 @@
     </row>
     <row r="61" spans="1:103" x14ac:dyDescent="0.45">
       <c r="A61" s="16">
-        <f t="shared" ref="A61:A96" si="0">((K2/J2) * L2)</f>
+        <f t="shared" ref="A61:A95" si="0">((K2/J2) * L2)</f>
         <v>1555</v>
       </c>
       <c r="B61" s="15"/>
@@ -10608,7 +10608,7 @@
     <row r="74" spans="1:103" x14ac:dyDescent="0.45">
       <c r="A74" s="16">
         <f t="shared" si="0"/>
-        <v>12.48</v>
+        <v>14.98</v>
       </c>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
@@ -17873,50 +17873,82 @@
     </row>
   </sheetData>
   <mergeCells count="144">
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="O31:Y31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="O32:Y32"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="O29:Y29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="O30:Y30"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="O26:Y26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="O27:Y27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="O28:Y28"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="O25:Y25"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="O22:Y22"/>
-    <mergeCell ref="O23:Y23"/>
-    <mergeCell ref="O24:Y24"/>
-    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="O36:Y36"/>
+    <mergeCell ref="O35:Y35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="O33:Y33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="O34:Y34"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="O21:Y21"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="O5:Y5"/>
+    <mergeCell ref="O6:Y6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="O1:Y1"/>
     <mergeCell ref="O11:Y11"/>
     <mergeCell ref="O10:Y10"/>
@@ -17941,82 +17973,50 @@
     <mergeCell ref="O2:Y2"/>
     <mergeCell ref="O3:Y3"/>
     <mergeCell ref="O4:Y4"/>
-    <mergeCell ref="O5:Y5"/>
-    <mergeCell ref="O6:Y6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="O21:Y21"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="O36:Y36"/>
-    <mergeCell ref="O35:Y35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="O33:Y33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="O34:Y34"/>
+    <mergeCell ref="O25:Y25"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="O22:Y22"/>
+    <mergeCell ref="O23:Y23"/>
+    <mergeCell ref="O24:Y24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="O26:Y26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="O27:Y27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="O28:Y28"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="O31:Y31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="O32:Y32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="O29:Y29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="O30:Y30"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -18029,7 +18029,7 @@
     <hyperlink ref="O4" r:id="rId7" xr:uid="{1636C2A0-353C-45D8-A86B-1E0389F62FCF}"/>
     <hyperlink ref="O16" r:id="rId8" display="https://www.amazon.com/Warmstor-SuperSpeed-Female-Adapter-Degree/dp/B073GTBQ8V/ref=sr_1_12?crid=3ZB9N5QSFOSE&amp;keywords=usb+3.0+male+to+female+90+degree+right+angle+extension+adapter&amp;qid=1651605042&amp;sprefix=usb+3.0+male+to+female+90+degree+right+angle+extension+adapter+%2Caps%2C91&amp;sr=8-12" xr:uid="{4245D037-3581-49E1-93A0-579EA9F8A6EC}"/>
     <hyperlink ref="O14" r:id="rId9" xr:uid="{F3528BC9-CDF8-43EA-B866-9583C41497CE}"/>
-    <hyperlink ref="O15" r:id="rId10" xr:uid="{F8EFE2B1-7499-4AB5-83AC-252F6B012378}"/>
+    <hyperlink ref="O15" r:id="rId10" display="https://www.amazon.com/Serial-Adapter-Signal-FT232RL-Windows/dp/B08BLH8H8V" xr:uid="{F8EFE2B1-7499-4AB5-83AC-252F6B012378}"/>
     <hyperlink ref="O12" r:id="rId11" xr:uid="{D30DC89C-DA04-4EA2-86D9-647228FF7492}"/>
     <hyperlink ref="O13" r:id="rId12" xr:uid="{80AD0D17-9E1B-44AC-97B8-AAA12A2B5B50}"/>
     <hyperlink ref="O11" r:id="rId13" xr:uid="{6D9D0085-67D3-41D9-9806-873F4C1C0DED}"/>
